--- a/data/sotsuron_n42.xlsx
+++ b/data/sotsuron_n42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac-2101/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F648F9-7206-744F-8222-43ED5685C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8E6BD-E841-D34B-A764-F995C37F9DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="500" windowWidth="28300" windowHeight="16340" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
   </bookViews>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB67353-A9E3-4B4C-B3A9-2B65C0E8B954}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -627,7 +627,7 @@
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -711,13 +711,20 @@
       <c r="N2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2">
+        <f>IF(B2&gt;=11,B2+1,B2)</f>
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -755,13 +762,20 @@
       <c r="N3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3">
+        <f t="shared" ref="P3:P42" si="0">IF(B3&gt;=11,B3+1,B3)</f>
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -799,8 +813,15 @@
       <c r="N4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -843,8 +864,15 @@
       <c r="N5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -887,8 +915,15 @@
       <c r="N6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -931,8 +966,15 @@
       <c r="N7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -975,8 +1017,15 @@
       <c r="N8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1019,13 +1068,20 @@
       <c r="N9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -1063,8 +1119,15 @@
       <c r="N10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1107,13 +1170,20 @@
       <c r="N11">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -1151,8 +1221,15 @@
       <c r="N12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1195,8 +1272,15 @@
       <c r="N13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1239,13 +1323,20 @@
       <c r="N14">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1283,8 +1374,15 @@
       <c r="N15">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1327,8 +1425,15 @@
       <c r="N16">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1371,13 +1476,20 @@
       <c r="N17">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1415,13 +1527,20 @@
       <c r="N18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -1459,13 +1578,20 @@
       <c r="N19">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -1503,8 +1629,15 @@
       <c r="N20">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,13 +1680,20 @@
       <c r="N21">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1591,13 +1731,20 @@
       <c r="N22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1635,13 +1782,20 @@
       <c r="N23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -1679,13 +1833,20 @@
       <c r="N24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -1723,13 +1884,20 @@
       <c r="N25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1767,13 +1935,20 @@
       <c r="N26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1811,13 +1986,20 @@
       <c r="N27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1855,13 +2037,20 @@
       <c r="N28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -1899,13 +2088,20 @@
       <c r="N29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -1943,8 +2139,15 @@
       <c r="N30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1987,13 +2190,20 @@
       <c r="N31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2031,8 +2241,15 @@
       <c r="N32">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2075,13 +2292,20 @@
       <c r="N33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -2119,13 +2343,20 @@
       <c r="N34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -2163,8 +2394,15 @@
       <c r="N35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -2207,13 +2445,20 @@
       <c r="N36">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2251,13 +2496,20 @@
       <c r="N37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -2295,8 +2547,15 @@
       <c r="N38">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2339,13 +2598,20 @@
       <c r="N39">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -2383,13 +2649,20 @@
       <c r="N40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -2427,13 +2700,20 @@
       <c r="N41">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -2470,6 +2750,13 @@
       </c>
       <c r="N42">
         <v>20</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/sotsuron_n42.xlsx
+++ b/data/sotsuron_n42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac-2101/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8E6BD-E841-D34B-A764-F995C37F9DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B06487-903B-8E40-AD42-5709A8D230AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="500" windowWidth="28300" windowHeight="16340" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
   </bookViews>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB67353-A9E3-4B4C-B3A9-2B65C0E8B954}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -627,7 +627,7 @@
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -691,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -711,15 +711,8 @@
       <c r="N2">
         <v>29</v>
       </c>
-      <c r="P2">
-        <f>IF(B2&gt;=11,B2+1,B2)</f>
-        <v>9</v>
-      </c>
-      <c r="Q2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -742,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>13</v>
@@ -762,15 +755,8 @@
       <c r="N3">
         <v>11</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P42" si="0">IF(B3&gt;=11,B3+1,B3)</f>
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -793,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>18</v>
@@ -813,15 +799,8 @@
       <c r="N4">
         <v>12</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -844,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -864,15 +843,8 @@
       <c r="N5">
         <v>23</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -895,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>11</v>
@@ -915,15 +887,8 @@
       <c r="N6">
         <v>29</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -966,15 +931,8 @@
       <c r="N7">
         <v>22</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -997,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>11</v>
@@ -1017,15 +975,8 @@
       <c r="N8">
         <v>25</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1068,15 +1019,8 @@
       <c r="N9">
         <v>27</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>20</v>
@@ -1119,15 +1063,8 @@
       <c r="N10">
         <v>23</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -1170,15 +1107,8 @@
       <c r="N11">
         <v>21</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1201,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1221,15 +1151,8 @@
       <c r="N12">
         <v>23</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1252,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -1272,15 +1195,8 @@
       <c r="N13">
         <v>30</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>11</v>
@@ -1323,15 +1239,8 @@
       <c r="N14">
         <v>21</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>11</v>
@@ -1374,15 +1283,8 @@
       <c r="N15">
         <v>26</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1425,15 +1327,8 @@
       <c r="N16">
         <v>23</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1456,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>11</v>
@@ -1476,15 +1371,8 @@
       <c r="N17">
         <v>28</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -1527,15 +1415,8 @@
       <c r="N18">
         <v>22</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>16</v>
@@ -1578,15 +1459,8 @@
       <c r="N19">
         <v>41</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>9</v>
@@ -1629,15 +1503,8 @@
       <c r="N20">
         <v>34</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1660,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -1680,15 +1547,8 @@
       <c r="N21">
         <v>26</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1711,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1731,15 +1591,8 @@
       <c r="N22">
         <v>28</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1762,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23">
         <v>20</v>
@@ -1782,15 +1635,8 @@
       <c r="N23">
         <v>16</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1659,7 @@
         <v>16</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <v>13</v>
@@ -1833,15 +1679,8 @@
       <c r="N24">
         <v>25</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1864,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -1884,15 +1723,8 @@
       <c r="N25">
         <v>21</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1915,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -1935,15 +1767,8 @@
       <c r="N26">
         <v>15</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1966,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>10</v>
@@ -1986,15 +1811,8 @@
       <c r="N27">
         <v>24</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="Q27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2017,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>10</v>
@@ -2037,15 +1855,8 @@
       <c r="N28">
         <v>14</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2068,7 +1879,7 @@
         <v>20</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -2088,15 +1899,8 @@
       <c r="N29">
         <v>25</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Q29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2119,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>20</v>
@@ -2139,15 +1943,8 @@
       <c r="N30">
         <v>26</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Q30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2170,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2190,15 +1987,8 @@
       <c r="N31">
         <v>28</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2221,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -2241,15 +2031,8 @@
       <c r="N32">
         <v>13</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Q32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2272,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2292,15 +2075,8 @@
       <c r="N33">
         <v>28</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34">
         <v>16</v>
@@ -2343,15 +2119,8 @@
       <c r="N34">
         <v>13</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35">
         <v>9</v>
@@ -2394,15 +2163,8 @@
       <c r="N35">
         <v>16</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -2425,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>8</v>
@@ -2445,15 +2207,8 @@
       <c r="N36">
         <v>26</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2476,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37">
         <v>11</v>
@@ -2496,15 +2251,8 @@
       <c r="N37">
         <v>17</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="Q37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -2527,7 +2275,7 @@
         <v>14</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -2547,15 +2295,8 @@
       <c r="N38">
         <v>17</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2578,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39">
         <v>12</v>
@@ -2598,15 +2339,8 @@
       <c r="N39">
         <v>30</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2629,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -2649,15 +2383,8 @@
       <c r="N40">
         <v>23</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Q40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>9</v>
@@ -2700,15 +2427,8 @@
       <c r="N41">
         <v>27</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Q41">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2731,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42">
         <v>13</v>
@@ -2750,13 +2470,6 @@
       </c>
       <c r="N42">
         <v>20</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q42">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
